--- a/biology/Zoologie/Ithonidae/Ithonidae.xlsx
+++ b/biology/Zoologie/Ithonidae/Ithonidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ithonidae sont une famille d'insectes ailés, de l'ordre des névroptères. Cette famille contient au total neuf genres, sept actuels et deux éteints. Les espèces actuelles ont une distribution disjointe tandis que les genres éteints étaient, eux, largement répandus. Cette famille est considérée comme l'une des plus primitives parmi les familles actuelles d'insectes névroptères.
 </t>
@@ -511,15 +523,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (28 févr. 2011)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (28 févr. 2011) :
 genre Ithone
 genre Megalithone
 genre Oliarces
-Selon ITIS      (28 févr. 2011)[4] :
+Selon ITIS      (28 févr. 2011) :
 genre Oliarces Banks, 1908
-Selon Paleobiology Database                   (21 avril 2019)[5]
+Selon Paleobiology Database                   (21 avril 2019)
 genre † Allorapisma Makarkin &amp; Archibald, 2009
 genre † Burmithone Lu et al., 2017
 genre † Cratovoluptia Martins-Neto &amp; Rodrigues, 2009
